--- a/biology/Biologie cellulaire et moléculaire/Pompe_à_protons/Pompe_à_protons.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pompe_à_protons/Pompe_à_protons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pompe_%C3%A0_protons</t>
+          <t>Pompe_à_protons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pompe à protons est une protéine transmembranaire, et plus précisément un transporteur membranaire actif, qui déplace les ions H+ contre leur gradient de concentration en utilisant de l'énergie. Cette énergie est souvent libérée par l'hydrolyse d'une molécule d'adénosine triphosphate (ATP). Son fonctionnement aboutit à l'enrichissement d'un compartiment (lysosome, vésicule, milieu extracellulaire) en ions H+, c'est-à-dire à une diminution du pH dans ce compartiment. 
 La baisse du pH est propice à l'activité de certaines protéines, essentiellement protéolytiques. L'hydrolyse de la molécule d'ATP libère l'énergie permettant de vaincre le gradient de concentration (c'est-à-dire aller contre un équilibre de pH des deux côtés de la membrane).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pompe_%C3%A0_protons</t>
+          <t>Pompe_à_protons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les pompes à protons sont présentes dans le mécanisme de résorption de la composante minérale de la matrice extracellulaire des tissus osseux, par les ostéoclastes. L'abaissement du pH par les pompes à protons permet la dissolution des cristaux d'hydroxyapatites.
 Chez les mammifères, la pompe à protons gastrique permet la sécrétion de H+ par l'épithélium gastrique, et est responsable du pH particulièrement bas du contenu de l'estomac, créant un milieu propice au fonctionnement de la pepsine.</t>
